--- a/xlsx/ARPANET_intext.xlsx
+++ b/xlsx/ARPANET_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>ARPANET</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_ARPANET</t>
+    <t>国防高等研究计划署</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_ARPANET</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E5%9C%96%E5%BD%A2</t>
   </si>
   <si>
-    <t>電腦圖形</t>
+    <t>电脑图形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%96%AF%E5%96%80%E5%BE%B9%E6%BA%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>薩斯喀徹溫省</t>
+    <t>萨斯喀彻温省</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Corporation_for_Education_Network_Initiatives_in_California</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Utah_Education_Network</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>Template talk-電信</t>
+    <t>Template talk-电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BD%91%E7%BB%9C</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Heliograph</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_mobile_phones</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光通訊</t>
+    <t>光通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semaphore_line</t>
@@ -581,25 +581,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>視訊會議</t>
+    <t>视讯会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>視訊電話</t>
+    <t>视讯电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -635,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Claude_Chappe</t>
   </si>
   <si>
@@ -653,13 +650,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BF%A1%E9%81%94</t>
   </si>
   <si>
-    <t>范信達</t>
+    <t>范信达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elisha_Gray</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8B%93%E6%92%B2</t>
   </si>
   <si>
-    <t>網絡拓撲</t>
+    <t>网络拓扑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_link</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free-space_optical_communication</t>
@@ -761,19 +758,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B0%8E%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>光導纖維</t>
+    <t>光导纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%A0%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>無線電頻譜</t>
+    <t>无线电频谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%B7%9A</t>
   </si>
   <si>
-    <t>電話線</t>
+    <t>电话线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -791,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>電信交換</t>
+    <t>电信交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E6%8F%9B%E5%99%A8</t>
   </si>
   <si>
-    <t>網路交換器</t>
+    <t>网路交换器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%B7%AF%E5%A4%8D%E7%94%A8</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISDN</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%94%B5%E8%AF%9D</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E4%B8%80%E4%BB%A3%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>下一代網絡</t>
+    <t>下一代网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPL_network</t>
@@ -917,19 +914,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>通訊裝置</t>
+    <t>通讯装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telex</t>
@@ -941,25 +938,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線網路</t>
+    <t>无线网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4300,7 +4297,7 @@
         <v>205</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4326,10 +4323,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4355,10 +4352,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4384,10 +4381,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4413,10 +4410,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4442,10 +4439,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4471,10 +4468,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4500,10 +4497,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4529,10 +4526,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4558,10 +4555,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4587,10 +4584,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4616,10 +4613,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4645,10 +4642,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4674,10 +4671,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4703,10 +4700,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4732,10 +4729,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4761,10 +4758,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -4790,10 +4787,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4819,10 +4816,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4848,10 +4845,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4877,10 +4874,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4906,10 +4903,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4935,10 +4932,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4964,10 +4961,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4993,10 +4990,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5022,10 +5019,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5080,10 +5077,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5109,10 +5106,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5138,10 +5135,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5167,10 +5164,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5196,10 +5193,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5225,10 +5222,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5254,10 +5251,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5283,10 +5280,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5312,10 +5309,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5341,10 +5338,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5370,10 +5367,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5399,10 +5396,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5428,10 +5425,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5457,10 +5454,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5486,10 +5483,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5515,10 +5512,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5544,10 +5541,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5573,10 +5570,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5602,10 +5599,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5631,10 +5628,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5660,10 +5657,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5689,10 +5686,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5718,10 +5715,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5747,10 +5744,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5776,10 +5773,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5805,10 +5802,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5834,10 +5831,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5863,10 +5860,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5892,10 +5889,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -5921,10 +5918,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5950,10 +5947,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
